--- a/backup_feedback.xlsx
+++ b/backup_feedback.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B561355-62D8-450E-9280-A804F65E796F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -681,7 +681,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,6 +805,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1337,21 +1341,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114:AA123"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="27" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1434,7 +1438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>14</v>
       </c>
@@ -1454,7 +1458,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1471,7 +1475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>16</v>
       </c>
@@ -1488,7 +1492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>17</v>
       </c>
@@ -1526,7 +1530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>18</v>
       </c>
@@ -1546,7 +1550,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>19</v>
       </c>
@@ -1581,7 +1585,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20</v>
       </c>
@@ -1601,7 +1605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>21</v>
       </c>
@@ -1624,7 +1628,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>22</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>23</v>
       </c>
@@ -1661,7 +1665,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>24</v>
       </c>
@@ -1696,7 +1700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>25</v>
       </c>
@@ -1713,7 +1717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>26</v>
       </c>
@@ -1730,7 +1734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>27</v>
       </c>
@@ -1759,7 +1763,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>28</v>
       </c>
@@ -1791,7 +1795,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>29</v>
       </c>
@@ -1808,7 +1812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>30</v>
       </c>
@@ -1843,7 +1847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>31</v>
       </c>
@@ -1875,7 +1879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>32</v>
       </c>
@@ -1919,7 +1923,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>33</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>34</v>
       </c>
@@ -2001,7 +2005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>35</v>
       </c>
@@ -2018,7 +2022,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>36</v>
       </c>
@@ -2035,7 +2039,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>37</v>
       </c>
@@ -2082,7 +2086,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>38</v>
       </c>
@@ -2133,7 +2137,7 @@
       </c>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>39</v>
       </c>
@@ -2184,7 +2188,7 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>40</v>
       </c>
@@ -2225,7 +2229,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>41</v>
       </c>
@@ -2266,7 +2270,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>42</v>
       </c>
@@ -2323,7 +2327,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>43</v>
       </c>
@@ -2376,7 +2380,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>44</v>
       </c>
@@ -2415,7 +2419,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>45</v>
       </c>
@@ -2468,7 +2472,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>46</v>
       </c>
@@ -2519,7 +2523,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>47</v>
       </c>
@@ -2568,7 +2572,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>48</v>
       </c>
@@ -2607,7 +2611,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>49</v>
       </c>
@@ -2656,7 +2660,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>50</v>
       </c>
@@ -2709,7 +2713,7 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>51</v>
       </c>
@@ -2748,7 +2752,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>52</v>
       </c>
@@ -2789,7 +2793,7 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>53</v>
       </c>
@@ -2840,7 +2844,7 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>54</v>
       </c>
@@ -2891,7 +2895,7 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>55</v>
       </c>
@@ -2942,7 +2946,7 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>56</v>
       </c>
@@ -2981,7 +2985,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>57</v>
       </c>
@@ -3032,7 +3036,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>58</v>
       </c>
@@ -3073,7 +3077,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>59</v>
       </c>
@@ -3126,7 +3130,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>60</v>
       </c>
@@ -3181,7 +3185,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>61</v>
       </c>
@@ -3222,7 +3226,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>62</v>
       </c>
@@ -3275,7 +3279,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>63</v>
       </c>
@@ -3314,7 +3318,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>64</v>
       </c>
@@ -3367,7 +3371,7 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>65</v>
       </c>
@@ -3406,7 +3410,7 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>66</v>
       </c>
@@ -3457,7 +3461,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>67</v>
       </c>
@@ -3496,7 +3500,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>68</v>
       </c>
@@ -3547,7 +3551,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>69</v>
       </c>
@@ -3602,7 +3606,7 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>70</v>
       </c>
@@ -3655,7 +3659,7 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>71</v>
       </c>
@@ -3708,7 +3712,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>72</v>
       </c>
@@ -3761,7 +3765,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>73</v>
       </c>
@@ -3814,7 +3818,7 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>74</v>
       </c>
@@ -3867,7 +3871,7 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>75</v>
       </c>
@@ -3912,7 +3916,7 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>76</v>
       </c>
@@ -3969,7 +3973,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>77</v>
       </c>
@@ -4010,7 +4014,7 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>78</v>
       </c>
@@ -4065,7 +4069,7 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>79</v>
       </c>
@@ -4114,7 +4118,7 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>80</v>
       </c>
@@ -4153,7 +4157,7 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>81</v>
       </c>
@@ -4208,7 +4212,7 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>82</v>
       </c>
@@ -4247,7 +4251,7 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>83</v>
       </c>
@@ -4298,7 +4302,7 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>84</v>
       </c>
@@ -4355,7 +4359,7 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>85</v>
       </c>
@@ -4410,7 +4414,7 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>86</v>
       </c>
@@ -4467,7 +4471,7 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>87</v>
       </c>
@@ -4514,7 +4518,7 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>88</v>
       </c>
@@ -4567,7 +4571,7 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>89</v>
       </c>
@@ -4618,7 +4622,7 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>90</v>
       </c>
@@ -4669,7 +4673,7 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>91</v>
       </c>
@@ -4720,7 +4724,7 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>92</v>
       </c>
@@ -4769,7 +4773,7 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>93</v>
       </c>
@@ -4822,7 +4826,7 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>94</v>
       </c>
@@ -4871,7 +4875,7 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>95</v>
       </c>
@@ -4918,7 +4922,7 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>96</v>
       </c>
@@ -4967,7 +4971,7 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>97</v>
       </c>
@@ -5020,7 +5024,7 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>98</v>
       </c>
@@ -5079,7 +5083,7 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>99</v>
       </c>
@@ -5134,7 +5138,7 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>100</v>
       </c>
@@ -5187,7 +5191,7 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>101</v>
       </c>
@@ -5242,7 +5246,7 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>102</v>
       </c>
@@ -5289,7 +5293,7 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>103</v>
       </c>
@@ -5342,7 +5346,7 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>104</v>
       </c>
@@ -5393,7 +5397,7 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>105</v>
       </c>
@@ -5448,7 +5452,7 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>106</v>
       </c>
@@ -5501,7 +5505,7 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>107</v>
       </c>
@@ -5556,7 +5560,7 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>108</v>
       </c>
@@ -5609,7 +5613,7 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>109</v>
       </c>
@@ -5664,7 +5668,7 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>110</v>
       </c>
@@ -5715,7 +5719,7 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>111</v>
       </c>
@@ -5768,7 +5772,7 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>112</v>
       </c>
@@ -5823,7 +5827,7 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>113</v>
       </c>
@@ -5876,7 +5880,7 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>114</v>
       </c>
@@ -5929,7 +5933,7 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>115</v>
       </c>
@@ -5982,7 +5986,7 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>116</v>
       </c>
@@ -6031,7 +6035,7 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>117</v>
       </c>
@@ -6078,7 +6082,7 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>118</v>
       </c>
@@ -6127,7 +6131,7 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>119</v>
       </c>
@@ -6180,7 +6184,7 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>120</v>
       </c>
@@ -6237,7 +6241,7 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>121</v>
       </c>
@@ -6290,7 +6294,7 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>122</v>
       </c>
@@ -6345,7 +6349,7 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>123</v>
       </c>
@@ -6398,7 +6402,7 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>124</v>
       </c>
@@ -6453,7 +6457,7 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>125</v>
       </c>
@@ -6506,7 +6510,7 @@
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>126</v>
       </c>
@@ -6559,7 +6563,7 @@
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>127</v>
       </c>
@@ -6614,7 +6618,7 @@
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>128</v>
       </c>
@@ -6667,7 +6671,7 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>129</v>
       </c>
@@ -6714,7 +6718,7 @@
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>130</v>
       </c>
@@ -6763,7 +6767,7 @@
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>131</v>
       </c>
@@ -6820,7 +6824,7 @@
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>132</v>
       </c>
@@ -6871,7 +6875,7 @@
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>133</v>
       </c>
@@ -6924,7 +6928,7 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>134</v>
       </c>
@@ -6975,7 +6979,7 @@
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>135</v>
       </c>
